--- a/natmiOut/OldD2/LR-pairs_lrc2p/Adam9-Itgb5.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Adam9-Itgb5.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>9.29434122236106</v>
+        <v>9.385801000000001</v>
       </c>
       <c r="H2">
-        <v>9.29434122236106</v>
+        <v>18.771602</v>
       </c>
       <c r="I2">
-        <v>0.06956778547866768</v>
+        <v>0.06848010139180623</v>
       </c>
       <c r="J2">
-        <v>0.06956778547866768</v>
+        <v>0.04853166157087635</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.46606625712103</v>
+        <v>3.840777</v>
       </c>
       <c r="N2">
-        <v>3.46606625712103</v>
+        <v>7.681554</v>
       </c>
       <c r="O2">
-        <v>0.02352134837643289</v>
+        <v>0.02536369583109148</v>
       </c>
       <c r="P2">
-        <v>0.02352134837643289</v>
+        <v>0.0173887125129192</v>
       </c>
       <c r="Q2">
-        <v>32.2148024929947</v>
+        <v>36.04876860737701</v>
       </c>
       <c r="R2">
-        <v>32.2148024929947</v>
+        <v>144.195074429508</v>
       </c>
       <c r="S2">
-        <v>0.001636328118020692</v>
+        <v>0.001736908462184078</v>
       </c>
       <c r="T2">
-        <v>0.001636328118020692</v>
+        <v>0.0008439031108302576</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>9.29434122236106</v>
+        <v>9.385801000000001</v>
       </c>
       <c r="H3">
-        <v>9.29434122236106</v>
+        <v>18.771602</v>
       </c>
       <c r="I3">
-        <v>0.06956778547866768</v>
+        <v>0.06848010139180623</v>
       </c>
       <c r="J3">
-        <v>0.06956778547866768</v>
+        <v>0.04853166157087635</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>19.3808377477765</v>
+        <v>20.670164</v>
       </c>
       <c r="N3">
-        <v>19.3808377477765</v>
+        <v>62.010492</v>
       </c>
       <c r="O3">
-        <v>0.1315218471533835</v>
+        <v>0.1365014819852278</v>
       </c>
       <c r="P3">
-        <v>0.1315218471533835</v>
+        <v>0.1403729789796018</v>
       </c>
       <c r="Q3">
-        <v>180.1321192030504</v>
+        <v>194.006045941364</v>
       </c>
       <c r="R3">
-        <v>180.1321192030504</v>
+        <v>1164.036275648184</v>
       </c>
       <c r="S3">
-        <v>0.009149683648524701</v>
+        <v>0.009347635326480211</v>
       </c>
       <c r="T3">
-        <v>0.009149683648524701</v>
+        <v>0.006812533909533775</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>9.29434122236106</v>
+        <v>9.385801000000001</v>
       </c>
       <c r="H4">
-        <v>9.29434122236106</v>
+        <v>18.771602</v>
       </c>
       <c r="I4">
-        <v>0.06956778547866768</v>
+        <v>0.06848010139180623</v>
       </c>
       <c r="J4">
-        <v>0.06956778547866768</v>
+        <v>0.04853166157087635</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>56.318798877526</v>
+        <v>57.18013133333333</v>
       </c>
       <c r="N4">
-        <v>56.318798877526</v>
+        <v>171.540394</v>
       </c>
       <c r="O4">
-        <v>0.3821894881031094</v>
+        <v>0.3776057445460984</v>
       </c>
       <c r="P4">
-        <v>0.3821894881031094</v>
+        <v>0.3883155147537712</v>
       </c>
       <c r="Q4">
-        <v>523.4461340012517</v>
+        <v>536.6813338485314</v>
       </c>
       <c r="R4">
-        <v>523.4461340012517</v>
+        <v>3220.088003091188</v>
       </c>
       <c r="S4">
-        <v>0.02658807632055893</v>
+        <v>0.0258584796726453</v>
       </c>
       <c r="T4">
-        <v>0.02658807632055893</v>
+        <v>0.01884559714475066</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>9.29434122236106</v>
+        <v>9.385801000000001</v>
       </c>
       <c r="H5">
-        <v>9.29434122236106</v>
+        <v>18.771602</v>
       </c>
       <c r="I5">
-        <v>0.06956778547866768</v>
+        <v>0.06848010139180623</v>
       </c>
       <c r="J5">
-        <v>0.06956778547866768</v>
+        <v>0.04853166157087635</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>54.4912197396901</v>
+        <v>55.57159966666666</v>
       </c>
       <c r="N5">
-        <v>54.4912197396901</v>
+        <v>166.714799</v>
       </c>
       <c r="O5">
-        <v>0.3697872077086645</v>
+        <v>0.3669833345681142</v>
       </c>
       <c r="P5">
-        <v>0.3697872077086645</v>
+        <v>0.3773918287185262</v>
       </c>
       <c r="Q5">
-        <v>506.4599898833364</v>
+        <v>521.5839757229996</v>
       </c>
       <c r="R5">
-        <v>506.4599898833364</v>
+        <v>3129.503854337998</v>
       </c>
       <c r="S5">
-        <v>0.0257252771386319</v>
+        <v>0.0251310559603276</v>
       </c>
       <c r="T5">
-        <v>0.0257252771386319</v>
+        <v>0.01831545251098165</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>9.29434122236106</v>
+        <v>9.385801000000001</v>
       </c>
       <c r="H6">
-        <v>9.29434122236106</v>
+        <v>18.771602</v>
       </c>
       <c r="I6">
-        <v>0.06956778547866768</v>
+        <v>0.06848010139180623</v>
       </c>
       <c r="J6">
-        <v>0.06956778547866768</v>
+        <v>0.04853166157087635</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>5.01940832880662</v>
+        <v>5.477037333333333</v>
       </c>
       <c r="N6">
-        <v>5.01940832880662</v>
+        <v>16.431112</v>
       </c>
       <c r="O6">
-        <v>0.03406260676721585</v>
+        <v>0.03616922018076005</v>
       </c>
       <c r="P6">
-        <v>0.03406260676721585</v>
+        <v>0.03719506272240967</v>
       </c>
       <c r="Q6">
-        <v>46.65209374228981</v>
+        <v>51.40638248023733</v>
       </c>
       <c r="R6">
-        <v>46.65209374228981</v>
+        <v>308.438294881424</v>
       </c>
       <c r="S6">
-        <v>0.002369660120425886</v>
+        <v>0.002476871865241012</v>
       </c>
       <c r="T6">
-        <v>0.002369660120425886</v>
+        <v>0.001805138196151505</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>9.29434122236106</v>
+        <v>9.385801000000001</v>
       </c>
       <c r="H7">
-        <v>9.29434122236106</v>
+        <v>18.771602</v>
       </c>
       <c r="I7">
-        <v>0.06956778547866768</v>
+        <v>0.06848010139180623</v>
       </c>
       <c r="J7">
-        <v>0.06956778547866768</v>
+        <v>0.04853166157087635</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>8.681983787270511</v>
+        <v>8.6884195</v>
       </c>
       <c r="N7">
-        <v>8.681983787270511</v>
+        <v>17.376839</v>
       </c>
       <c r="O7">
-        <v>0.05891750189119398</v>
+        <v>0.05737652288870818</v>
       </c>
       <c r="P7">
-        <v>0.05891750189119398</v>
+        <v>0.03933590231277193</v>
       </c>
       <c r="Q7">
-        <v>80.69331980589871</v>
+        <v>81.54777643151951</v>
       </c>
       <c r="R7">
-        <v>80.69331980589871</v>
+        <v>326.191105726078</v>
       </c>
       <c r="S7">
-        <v>0.00409876013250558</v>
+        <v>0.003929150104928027</v>
       </c>
       <c r="T7">
-        <v>0.00409876013250558</v>
+        <v>0.001909036698628499</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>34.4441628955031</v>
+        <v>36.44655933333333</v>
       </c>
       <c r="H8">
-        <v>34.4441628955031</v>
+        <v>109.339678</v>
       </c>
       <c r="I8">
-        <v>0.2578132304354898</v>
+        <v>0.2659191345021217</v>
       </c>
       <c r="J8">
-        <v>0.2578132304354898</v>
+        <v>0.2826842508681249</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>3.46606625712103</v>
+        <v>3.840777</v>
       </c>
       <c r="N8">
-        <v>3.46606625712103</v>
+        <v>7.681554</v>
       </c>
       <c r="O8">
-        <v>0.02352134837643289</v>
+        <v>0.02536369583109148</v>
       </c>
       <c r="P8">
-        <v>0.02352134837643289</v>
+        <v>0.0173887125129192</v>
       </c>
       <c r="Q8">
-        <v>119.3857507668835</v>
+        <v>139.983106816602</v>
       </c>
       <c r="R8">
-        <v>119.3857507668835</v>
+        <v>839.898640899612</v>
       </c>
       <c r="S8">
-        <v>0.006064114809126726</v>
+        <v>0.006744692043178919</v>
       </c>
       <c r="T8">
-        <v>0.006064114809126726</v>
+        <v>0.004915515170275754</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>34.4441628955031</v>
+        <v>36.44655933333333</v>
       </c>
       <c r="H9">
-        <v>34.4441628955031</v>
+        <v>109.339678</v>
       </c>
       <c r="I9">
-        <v>0.2578132304354898</v>
+        <v>0.2659191345021217</v>
       </c>
       <c r="J9">
-        <v>0.2578132304354898</v>
+        <v>0.2826842508681249</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>19.3808377477765</v>
+        <v>20.670164</v>
       </c>
       <c r="N9">
-        <v>19.3808377477765</v>
+        <v>62.010492</v>
       </c>
       <c r="O9">
-        <v>0.1315218471533835</v>
+        <v>0.1365014819852278</v>
       </c>
       <c r="P9">
-        <v>0.1315218471533835</v>
+        <v>0.1403729789796018</v>
       </c>
       <c r="Q9">
-        <v>667.5567324357291</v>
+        <v>753.3563586557307</v>
       </c>
       <c r="R9">
-        <v>667.5567324357291</v>
+        <v>6780.207227901577</v>
       </c>
       <c r="S9">
-        <v>0.03390807228745652</v>
+        <v>0.03629835594776873</v>
       </c>
       <c r="T9">
-        <v>0.03390807228745652</v>
+        <v>0.03968123040497577</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>34.4441628955031</v>
+        <v>36.44655933333333</v>
       </c>
       <c r="H10">
-        <v>34.4441628955031</v>
+        <v>109.339678</v>
       </c>
       <c r="I10">
-        <v>0.2578132304354898</v>
+        <v>0.2659191345021217</v>
       </c>
       <c r="J10">
-        <v>0.2578132304354898</v>
+        <v>0.2826842508681249</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>56.318798877526</v>
+        <v>57.18013133333333</v>
       </c>
       <c r="N10">
-        <v>56.318798877526</v>
+        <v>171.540394</v>
       </c>
       <c r="O10">
-        <v>0.3821894881031094</v>
+        <v>0.3776057445460984</v>
       </c>
       <c r="P10">
-        <v>0.3821894881031094</v>
+        <v>0.3883155147537712</v>
       </c>
       <c r="Q10">
-        <v>1939.853882616582</v>
+        <v>2084.019049328126</v>
       </c>
       <c r="R10">
-        <v>1939.853882616582</v>
+        <v>18756.17144395313</v>
       </c>
       <c r="S10">
-        <v>0.09853350656634884</v>
+        <v>0.1004125927727277</v>
       </c>
       <c r="T10">
-        <v>0.09853350656634884</v>
+        <v>0.1097706803886401</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>34.4441628955031</v>
+        <v>36.44655933333333</v>
       </c>
       <c r="H11">
-        <v>34.4441628955031</v>
+        <v>109.339678</v>
       </c>
       <c r="I11">
-        <v>0.2578132304354898</v>
+        <v>0.2659191345021217</v>
       </c>
       <c r="J11">
-        <v>0.2578132304354898</v>
+        <v>0.2826842508681249</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>54.4912197396901</v>
+        <v>55.57159966666666</v>
       </c>
       <c r="N11">
-        <v>54.4912197396901</v>
+        <v>166.714799</v>
       </c>
       <c r="O11">
-        <v>0.3697872077086645</v>
+        <v>0.3669833345681142</v>
       </c>
       <c r="P11">
-        <v>0.3697872077086645</v>
+        <v>0.3773918287185262</v>
       </c>
       <c r="Q11">
-        <v>1876.90444908854</v>
+        <v>2025.393604499413</v>
       </c>
       <c r="R11">
-        <v>1876.90444908854</v>
+        <v>18228.54244049472</v>
       </c>
       <c r="S11">
-        <v>0.09533603459309026</v>
+        <v>0.09758789070505547</v>
       </c>
       <c r="T11">
-        <v>0.09533603459309026</v>
+        <v>0.1066827263850483</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>34.4441628955031</v>
+        <v>36.44655933333333</v>
       </c>
       <c r="H12">
-        <v>34.4441628955031</v>
+        <v>109.339678</v>
       </c>
       <c r="I12">
-        <v>0.2578132304354898</v>
+        <v>0.2659191345021217</v>
       </c>
       <c r="J12">
-        <v>0.2578132304354898</v>
+        <v>0.2826842508681249</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>5.01940832880662</v>
+        <v>5.477037333333333</v>
       </c>
       <c r="N12">
-        <v>5.01940832880662</v>
+        <v>16.431112</v>
       </c>
       <c r="O12">
-        <v>0.03406260676721585</v>
+        <v>0.03616922018076005</v>
       </c>
       <c r="P12">
-        <v>0.03406260676721585</v>
+        <v>0.03719506272240967</v>
       </c>
       <c r="Q12">
-        <v>172.8893181164602</v>
+        <v>199.6191661402151</v>
       </c>
       <c r="R12">
-        <v>172.8893181164602</v>
+        <v>1796.572495261936</v>
       </c>
       <c r="S12">
-        <v>0.008781790687709694</v>
+        <v>0.009618087726084386</v>
       </c>
       <c r="T12">
-        <v>0.008781790687709694</v>
+        <v>0.01051445844167729</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>34.4441628955031</v>
+        <v>36.44655933333333</v>
       </c>
       <c r="H13">
-        <v>34.4441628955031</v>
+        <v>109.339678</v>
       </c>
       <c r="I13">
-        <v>0.2578132304354898</v>
+        <v>0.2659191345021217</v>
       </c>
       <c r="J13">
-        <v>0.2578132304354898</v>
+        <v>0.2826842508681249</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>8.681983787270511</v>
+        <v>8.6884195</v>
       </c>
       <c r="N13">
-        <v>8.681983787270511</v>
+        <v>17.376839</v>
       </c>
       <c r="O13">
-        <v>0.05891750189119398</v>
+        <v>0.05737652288870818</v>
       </c>
       <c r="P13">
-        <v>0.05891750189119398</v>
+        <v>0.03933590231277193</v>
       </c>
       <c r="Q13">
-        <v>299.0436638248624</v>
+        <v>316.6629968196403</v>
       </c>
       <c r="R13">
-        <v>299.0436638248624</v>
+        <v>1899.977980917842</v>
       </c>
       <c r="S13">
-        <v>0.0151897114917578</v>
+        <v>0.01525751530730645</v>
       </c>
       <c r="T13">
-        <v>0.0151897114917578</v>
+        <v>0.01111964007750767</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>35.0724403738168</v>
+        <v>35.10635633333334</v>
       </c>
       <c r="H14">
-        <v>35.0724403738168</v>
+        <v>105.319069</v>
       </c>
       <c r="I14">
-        <v>0.2625158631220594</v>
+        <v>0.2561408281726349</v>
       </c>
       <c r="J14">
-        <v>0.2625158631220594</v>
+        <v>0.2722894622242564</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>3.46606625712103</v>
+        <v>3.840777</v>
       </c>
       <c r="N14">
-        <v>3.46606625712103</v>
+        <v>7.681554</v>
       </c>
       <c r="O14">
-        <v>0.02352134837643289</v>
+        <v>0.02536369583109148</v>
       </c>
       <c r="P14">
-        <v>0.02352134837643289</v>
+        <v>0.0173887125129192</v>
       </c>
       <c r="Q14">
-        <v>121.5634021345757</v>
+        <v>134.835685958871</v>
       </c>
       <c r="R14">
-        <v>121.5634021345757</v>
+        <v>809.0141157532262</v>
       </c>
       <c r="S14">
-        <v>0.00617472707083393</v>
+        <v>0.006496678055694581</v>
       </c>
       <c r="T14">
-        <v>0.00617472707083393</v>
+        <v>0.004734763178914967</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>35.0724403738168</v>
+        <v>35.10635633333334</v>
       </c>
       <c r="H15">
-        <v>35.0724403738168</v>
+        <v>105.319069</v>
       </c>
       <c r="I15">
-        <v>0.2625158631220594</v>
+        <v>0.2561408281726349</v>
       </c>
       <c r="J15">
-        <v>0.2625158631220594</v>
+        <v>0.2722894622242564</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>19.3808377477765</v>
+        <v>20.670164</v>
       </c>
       <c r="N15">
-        <v>19.3808377477765</v>
+        <v>62.010492</v>
       </c>
       <c r="O15">
-        <v>0.1315218471533835</v>
+        <v>0.1365014819852278</v>
       </c>
       <c r="P15">
-        <v>0.1315218471533835</v>
+        <v>0.1403729789796018</v>
       </c>
       <c r="Q15">
-        <v>679.7332763035091</v>
+        <v>725.6541428524388</v>
       </c>
       <c r="R15">
-        <v>679.7332763035091</v>
+        <v>6530.887285671949</v>
       </c>
       <c r="S15">
-        <v>0.03452657122487803</v>
+        <v>0.03496360264248826</v>
       </c>
       <c r="T15">
-        <v>0.03452657122487803</v>
+        <v>0.03822208295717262</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>35.0724403738168</v>
+        <v>35.10635633333334</v>
       </c>
       <c r="H16">
-        <v>35.0724403738168</v>
+        <v>105.319069</v>
       </c>
       <c r="I16">
-        <v>0.2625158631220594</v>
+        <v>0.2561408281726349</v>
       </c>
       <c r="J16">
-        <v>0.2625158631220594</v>
+        <v>0.2722894622242564</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>56.318798877526</v>
+        <v>57.18013133333333</v>
       </c>
       <c r="N16">
-        <v>56.318798877526</v>
+        <v>171.540394</v>
       </c>
       <c r="O16">
-        <v>0.3821894881031094</v>
+        <v>0.3776057445460984</v>
       </c>
       <c r="P16">
-        <v>0.3821894881031094</v>
+        <v>0.3883155147537712</v>
       </c>
       <c r="Q16">
-        <v>1975.237715557011</v>
+        <v>2007.386065774798</v>
       </c>
       <c r="R16">
-        <v>1975.237715557011</v>
+        <v>18066.47459197319</v>
       </c>
       <c r="S16">
-        <v>0.1003308033455658</v>
+        <v>0.09672024813078206</v>
       </c>
       <c r="T16">
-        <v>0.1003308033455658</v>
+        <v>0.1057342226856396</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>35.0724403738168</v>
+        <v>35.10635633333334</v>
       </c>
       <c r="H17">
-        <v>35.0724403738168</v>
+        <v>105.319069</v>
       </c>
       <c r="I17">
-        <v>0.2625158631220594</v>
+        <v>0.2561408281726349</v>
       </c>
       <c r="J17">
-        <v>0.2625158631220594</v>
+        <v>0.2722894622242564</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>54.4912197396901</v>
+        <v>55.57159966666666</v>
       </c>
       <c r="N17">
-        <v>54.4912197396901</v>
+        <v>166.714799</v>
       </c>
       <c r="O17">
-        <v>0.3697872077086645</v>
+        <v>0.3669833345681142</v>
       </c>
       <c r="P17">
-        <v>0.3697872077086645</v>
+        <v>0.3773918287185262</v>
       </c>
       <c r="Q17">
-        <v>1911.14005521683</v>
+        <v>1950.916379911348</v>
       </c>
       <c r="R17">
-        <v>1911.14005521683</v>
+        <v>17558.24741920213</v>
       </c>
       <c r="S17">
-        <v>0.09707500800313631</v>
+        <v>0.09399941524183193</v>
       </c>
       <c r="T17">
-        <v>0.09707500800313631</v>
+        <v>0.1027598180895962</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>35.0724403738168</v>
+        <v>35.10635633333334</v>
       </c>
       <c r="H18">
-        <v>35.0724403738168</v>
+        <v>105.319069</v>
       </c>
       <c r="I18">
-        <v>0.2625158631220594</v>
+        <v>0.2561408281726349</v>
       </c>
       <c r="J18">
-        <v>0.2625158631220594</v>
+        <v>0.2722894622242564</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>5.01940832880662</v>
+        <v>5.477037333333333</v>
       </c>
       <c r="N18">
-        <v>5.01940832880662</v>
+        <v>16.431112</v>
       </c>
       <c r="O18">
-        <v>0.03406260676721585</v>
+        <v>0.03616922018076005</v>
       </c>
       <c r="P18">
-        <v>0.03406260676721585</v>
+        <v>0.03719506272240967</v>
       </c>
       <c r="Q18">
-        <v>176.0428993239096</v>
+        <v>192.2788242749698</v>
       </c>
       <c r="R18">
-        <v>176.0428993239096</v>
+        <v>1730.509418474728</v>
       </c>
       <c r="S18">
-        <v>0.00894197461568297</v>
+        <v>0.009264414011458262</v>
       </c>
       <c r="T18">
-        <v>0.00894197461568297</v>
+        <v>0.01012782362608241</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>35.0724403738168</v>
+        <v>35.10635633333334</v>
       </c>
       <c r="H19">
-        <v>35.0724403738168</v>
+        <v>105.319069</v>
       </c>
       <c r="I19">
-        <v>0.2625158631220594</v>
+        <v>0.2561408281726349</v>
       </c>
       <c r="J19">
-        <v>0.2625158631220594</v>
+        <v>0.2722894622242564</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>8.681983787270511</v>
+        <v>8.6884195</v>
       </c>
       <c r="N19">
-        <v>8.681983787270511</v>
+        <v>17.376839</v>
       </c>
       <c r="O19">
-        <v>0.05891750189119398</v>
+        <v>0.05737652288870818</v>
       </c>
       <c r="P19">
-        <v>0.05891750189119398</v>
+        <v>0.03933590231277193</v>
       </c>
       <c r="Q19">
-        <v>304.4983587054891</v>
+        <v>305.0187509404819</v>
       </c>
       <c r="R19">
-        <v>304.4983587054891</v>
+        <v>1830.112505642891</v>
       </c>
       <c r="S19">
-        <v>0.01546677886196235</v>
+        <v>0.01469647009037986</v>
       </c>
       <c r="T19">
-        <v>0.01546677886196235</v>
+        <v>0.01071075168685055</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>30.8024447199281</v>
+        <v>31.58644433333333</v>
       </c>
       <c r="H20">
-        <v>30.8024447199281</v>
+        <v>94.759333</v>
       </c>
       <c r="I20">
-        <v>0.2305551103868471</v>
+        <v>0.2304590637020015</v>
       </c>
       <c r="J20">
-        <v>0.2305551103868471</v>
+        <v>0.244988567296386</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>3.46606625712103</v>
+        <v>3.840777</v>
       </c>
       <c r="N20">
-        <v>3.46606625712103</v>
+        <v>7.681554</v>
       </c>
       <c r="O20">
-        <v>0.02352134837643289</v>
+        <v>0.02536369583109148</v>
       </c>
       <c r="P20">
-        <v>0.02352134837643289</v>
+        <v>0.0173887125129192</v>
       </c>
       <c r="Q20">
-        <v>106.7633142805786</v>
+        <v>121.316488907247</v>
       </c>
       <c r="R20">
-        <v>106.7633142805786</v>
+        <v>727.898933443482</v>
       </c>
       <c r="S20">
-        <v>0.005422967071375972</v>
+        <v>0.005845293593255703</v>
       </c>
       <c r="T20">
-        <v>0.005422967071375972</v>
+        <v>0.004260035765668816</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>30.8024447199281</v>
+        <v>31.58644433333333</v>
       </c>
       <c r="H21">
-        <v>30.8024447199281</v>
+        <v>94.759333</v>
       </c>
       <c r="I21">
-        <v>0.2305551103868471</v>
+        <v>0.2304590637020015</v>
       </c>
       <c r="J21">
-        <v>0.2305551103868471</v>
+        <v>0.244988567296386</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>19.3808377477765</v>
+        <v>20.670164</v>
       </c>
       <c r="N21">
-        <v>19.3808377477765</v>
+        <v>62.010492</v>
       </c>
       <c r="O21">
-        <v>0.1315218471533835</v>
+        <v>0.1365014819852278</v>
       </c>
       <c r="P21">
-        <v>0.1315218471533835</v>
+        <v>0.1403729789796018</v>
       </c>
       <c r="Q21">
-        <v>596.9771833517815</v>
+        <v>652.8969845468706</v>
       </c>
       <c r="R21">
-        <v>596.9771833517815</v>
+        <v>5876.072860921836</v>
       </c>
       <c r="S21">
-        <v>0.03032303398873036</v>
+        <v>0.03145800373225123</v>
       </c>
       <c r="T21">
-        <v>0.03032303398873036</v>
+        <v>0.03438977500733836</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>30.8024447199281</v>
+        <v>31.58644433333333</v>
       </c>
       <c r="H22">
-        <v>30.8024447199281</v>
+        <v>94.759333</v>
       </c>
       <c r="I22">
-        <v>0.2305551103868471</v>
+        <v>0.2304590637020015</v>
       </c>
       <c r="J22">
-        <v>0.2305551103868471</v>
+        <v>0.244988567296386</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>56.318798877526</v>
+        <v>57.18013133333333</v>
       </c>
       <c r="N22">
-        <v>56.318798877526</v>
+        <v>171.540394</v>
       </c>
       <c r="O22">
-        <v>0.3821894881031094</v>
+        <v>0.3776057445460984</v>
       </c>
       <c r="P22">
-        <v>0.3821894881031094</v>
+        <v>0.3883155147537712</v>
       </c>
       <c r="Q22">
-        <v>1734.756689117743</v>
+        <v>1806.117035333022</v>
       </c>
       <c r="R22">
-        <v>1734.756689117743</v>
+        <v>16255.0533179972</v>
       </c>
       <c r="S22">
-        <v>0.08811573961830498</v>
+        <v>0.087022666336591</v>
       </c>
       <c r="T22">
-        <v>0.08811573961830498</v>
+        <v>0.09513286161848505</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>30.8024447199281</v>
+        <v>31.58644433333333</v>
       </c>
       <c r="H23">
-        <v>30.8024447199281</v>
+        <v>94.759333</v>
       </c>
       <c r="I23">
-        <v>0.2305551103868471</v>
+        <v>0.2304590637020015</v>
       </c>
       <c r="J23">
-        <v>0.2305551103868471</v>
+        <v>0.244988567296386</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>54.4912197396901</v>
+        <v>55.57159966666666</v>
       </c>
       <c r="N23">
-        <v>54.4912197396901</v>
+        <v>166.714799</v>
       </c>
       <c r="O23">
-        <v>0.3697872077086645</v>
+        <v>0.3669833345681142</v>
       </c>
       <c r="P23">
-        <v>0.3697872077086645</v>
+        <v>0.3773918287185262</v>
       </c>
       <c r="Q23">
-        <v>1678.462783753259</v>
+        <v>1755.309239385452</v>
       </c>
       <c r="R23">
-        <v>1678.462783753259</v>
+        <v>15797.78315446906</v>
       </c>
       <c r="S23">
-        <v>0.08525633049291512</v>
+        <v>0.08457463567880597</v>
       </c>
       <c r="T23">
-        <v>0.08525633049291512</v>
+        <v>0.09245668342711484</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>30.8024447199281</v>
+        <v>31.58644433333333</v>
       </c>
       <c r="H24">
-        <v>30.8024447199281</v>
+        <v>94.759333</v>
       </c>
       <c r="I24">
-        <v>0.2305551103868471</v>
+        <v>0.2304590637020015</v>
       </c>
       <c r="J24">
-        <v>0.2305551103868471</v>
+        <v>0.244988567296386</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>5.01940832880662</v>
+        <v>5.477037333333333</v>
       </c>
       <c r="N24">
-        <v>5.01940832880662</v>
+        <v>16.431112</v>
       </c>
       <c r="O24">
-        <v>0.03406260676721585</v>
+        <v>0.03616922018076005</v>
       </c>
       <c r="P24">
-        <v>0.03406260676721585</v>
+        <v>0.03719506272240967</v>
       </c>
       <c r="Q24">
-        <v>154.6100475748126</v>
+        <v>173.0001348409218</v>
       </c>
       <c r="R24">
-        <v>154.6100475748126</v>
+        <v>1557.001213568296</v>
       </c>
       <c r="S24">
-        <v>0.007853308063279215</v>
+        <v>0.008335524617689501</v>
       </c>
       <c r="T24">
-        <v>0.007853308063279215</v>
+        <v>0.009112365126862362</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>30.8024447199281</v>
+        <v>31.58644433333333</v>
       </c>
       <c r="H25">
-        <v>30.8024447199281</v>
+        <v>94.759333</v>
       </c>
       <c r="I25">
-        <v>0.2305551103868471</v>
+        <v>0.2304590637020015</v>
       </c>
       <c r="J25">
-        <v>0.2305551103868471</v>
+        <v>0.244988567296386</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>8.681983787270511</v>
+        <v>8.6884195</v>
       </c>
       <c r="N25">
-        <v>8.681983787270511</v>
+        <v>17.376839</v>
       </c>
       <c r="O25">
-        <v>0.05891750189119398</v>
+        <v>0.05737652288870818</v>
       </c>
       <c r="P25">
-        <v>0.05891750189119398</v>
+        <v>0.03933590231277193</v>
       </c>
       <c r="Q25">
-        <v>267.4263256667119</v>
+        <v>274.4362788813978</v>
       </c>
       <c r="R25">
-        <v>267.4263256667119</v>
+        <v>1646.617673288387</v>
       </c>
       <c r="S25">
-        <v>0.0135837311522415</v>
+        <v>0.01322293974340815</v>
       </c>
       <c r="T25">
-        <v>0.0135837311522415</v>
+        <v>0.009636846350916592</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,52 +2025,52 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>9.185384309936509</v>
+        <v>9.533863</v>
       </c>
       <c r="H26">
-        <v>9.185384309936509</v>
+        <v>28.601589</v>
       </c>
       <c r="I26">
-        <v>0.06875224719266922</v>
+        <v>0.0695603822087843</v>
       </c>
       <c r="J26">
-        <v>0.06875224719266922</v>
+        <v>0.07394588047079305</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>3.46606625712103</v>
+        <v>3.840777</v>
       </c>
       <c r="N26">
-        <v>3.46606625712103</v>
+        <v>7.681554</v>
       </c>
       <c r="O26">
-        <v>0.02352134837643289</v>
+        <v>0.02536369583109148</v>
       </c>
       <c r="P26">
-        <v>0.02352134837643289</v>
+        <v>0.0173887125129192</v>
       </c>
       <c r="Q26">
-        <v>31.83715061535987</v>
+        <v>36.617441731551</v>
       </c>
       <c r="R26">
-        <v>31.83715061535987</v>
+        <v>219.704650389306</v>
       </c>
       <c r="S26">
-        <v>0.001617145557881403</v>
+        <v>0.001764308376238072</v>
       </c>
       <c r="T26">
-        <v>0.001617145557881403</v>
+        <v>0.001285823657021307</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,52 +2087,52 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>9.185384309936509</v>
+        <v>9.533863</v>
       </c>
       <c r="H27">
-        <v>9.185384309936509</v>
+        <v>28.601589</v>
       </c>
       <c r="I27">
-        <v>0.06875224719266922</v>
+        <v>0.0695603822087843</v>
       </c>
       <c r="J27">
-        <v>0.06875224719266922</v>
+        <v>0.07394588047079305</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>19.3808377477765</v>
+        <v>20.670164</v>
       </c>
       <c r="N27">
-        <v>19.3808377477765</v>
+        <v>62.010492</v>
       </c>
       <c r="O27">
-        <v>0.1315218471533835</v>
+        <v>0.1365014819852278</v>
       </c>
       <c r="P27">
-        <v>0.1315218471533835</v>
+        <v>0.1403729789796018</v>
       </c>
       <c r="Q27">
-        <v>178.0204429618515</v>
+        <v>197.066511763532</v>
       </c>
       <c r="R27">
-        <v>178.0204429618515</v>
+        <v>1773.598605871788</v>
       </c>
       <c r="S27">
-        <v>0.009042422546725878</v>
+        <v>0.00949509525895793</v>
       </c>
       <c r="T27">
-        <v>0.009042422546725878</v>
+        <v>0.01038000352495478</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,52 +2149,52 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>9.185384309936509</v>
+        <v>9.533863</v>
       </c>
       <c r="H28">
-        <v>9.185384309936509</v>
+        <v>28.601589</v>
       </c>
       <c r="I28">
-        <v>0.06875224719266922</v>
+        <v>0.0695603822087843</v>
       </c>
       <c r="J28">
-        <v>0.06875224719266922</v>
+        <v>0.07394588047079305</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>56.318798877526</v>
+        <v>57.18013133333333</v>
       </c>
       <c r="N28">
-        <v>56.318798877526</v>
+        <v>171.540394</v>
       </c>
       <c r="O28">
-        <v>0.3821894881031094</v>
+        <v>0.3776057445460984</v>
       </c>
       <c r="P28">
-        <v>0.3821894881031094</v>
+        <v>0.3883155147537712</v>
       </c>
       <c r="Q28">
-        <v>517.3098115640972</v>
+        <v>545.1475384540073</v>
       </c>
       <c r="R28">
-        <v>517.3098115640972</v>
+        <v>4906.327846086066</v>
       </c>
       <c r="S28">
-        <v>0.02627638616050468</v>
+        <v>0.02626639991485917</v>
       </c>
       <c r="T28">
-        <v>0.02627638616050468</v>
+        <v>0.02871433263893684</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,52 +2211,52 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>9.185384309936509</v>
+        <v>9.533863</v>
       </c>
       <c r="H29">
-        <v>9.185384309936509</v>
+        <v>28.601589</v>
       </c>
       <c r="I29">
-        <v>0.06875224719266922</v>
+        <v>0.0695603822087843</v>
       </c>
       <c r="J29">
-        <v>0.06875224719266922</v>
+        <v>0.07394588047079305</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>54.4912197396901</v>
+        <v>55.57159966666666</v>
       </c>
       <c r="N29">
-        <v>54.4912197396901</v>
+        <v>166.714799</v>
       </c>
       <c r="O29">
-        <v>0.3697872077086645</v>
+        <v>0.3669833345681142</v>
       </c>
       <c r="P29">
-        <v>0.3697872077086645</v>
+        <v>0.3773918287185262</v>
       </c>
       <c r="Q29">
-        <v>500.522794826252</v>
+        <v>529.8120179128456</v>
       </c>
       <c r="R29">
-        <v>500.522794826252</v>
+        <v>4768.30816121561</v>
       </c>
       <c r="S29">
-        <v>0.02542370151307302</v>
+        <v>0.02552750101681218</v>
       </c>
       <c r="T29">
-        <v>0.02542370151307302</v>
+        <v>0.02790657105707414</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,52 +2273,52 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>9.185384309936509</v>
+        <v>9.533863</v>
       </c>
       <c r="H30">
-        <v>9.185384309936509</v>
+        <v>28.601589</v>
       </c>
       <c r="I30">
-        <v>0.06875224719266922</v>
+        <v>0.0695603822087843</v>
       </c>
       <c r="J30">
-        <v>0.06875224719266922</v>
+        <v>0.07394588047079305</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>5.01940832880662</v>
+        <v>5.477037333333333</v>
       </c>
       <c r="N30">
-        <v>5.01940832880662</v>
+        <v>16.431112</v>
       </c>
       <c r="O30">
-        <v>0.03406260676721585</v>
+        <v>0.03616922018076005</v>
       </c>
       <c r="P30">
-        <v>0.03406260676721585</v>
+        <v>0.03719506272240967</v>
       </c>
       <c r="Q30">
-        <v>46.10519450858496</v>
+        <v>52.21732358188533</v>
       </c>
       <c r="R30">
-        <v>46.10519450858496</v>
+        <v>469.955912236968</v>
       </c>
       <c r="S30">
-        <v>0.002341880760486311</v>
+        <v>0.002515944779967344</v>
       </c>
       <c r="T30">
-        <v>0.002341880760486311</v>
+        <v>0.002750421662174956</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,52 +2335,52 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>9.185384309936509</v>
+        <v>9.533863</v>
       </c>
       <c r="H31">
-        <v>9.185384309936509</v>
+        <v>28.601589</v>
       </c>
       <c r="I31">
-        <v>0.06875224719266922</v>
+        <v>0.0695603822087843</v>
       </c>
       <c r="J31">
-        <v>0.06875224719266922</v>
+        <v>0.07394588047079305</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>8.681983787270511</v>
+        <v>8.6884195</v>
       </c>
       <c r="N31">
-        <v>8.681983787270511</v>
+        <v>17.376839</v>
       </c>
       <c r="O31">
-        <v>0.05891750189119398</v>
+        <v>0.05737652288870818</v>
       </c>
       <c r="P31">
-        <v>0.05891750189119398</v>
+        <v>0.03933590231277193</v>
       </c>
       <c r="Q31">
-        <v>79.7473576587177</v>
+        <v>82.83420119952851</v>
       </c>
       <c r="R31">
-        <v>79.7473576587177</v>
+        <v>497.005207197171</v>
       </c>
       <c r="S31">
-        <v>0.004050710653997924</v>
+        <v>0.003991132861949602</v>
       </c>
       <c r="T31">
-        <v>0.004050710653997924</v>
+        <v>0.002908727930631025</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,52 +2397,52 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32">
-        <v>14.8024494929643</v>
+        <v>14.999783</v>
       </c>
       <c r="H32">
-        <v>14.8024494929643</v>
+        <v>29.999566</v>
       </c>
       <c r="I32">
-        <v>0.1107957633842668</v>
+        <v>0.1094404900226514</v>
       </c>
       <c r="J32">
-        <v>0.1107957633842668</v>
+        <v>0.07756017756956324</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L32">
         <v>1</v>
       </c>
       <c r="M32">
-        <v>3.46606625712103</v>
+        <v>3.840777</v>
       </c>
       <c r="N32">
-        <v>3.46606625712103</v>
+        <v>7.681554</v>
       </c>
       <c r="O32">
-        <v>0.02352134837643289</v>
+        <v>0.02536369583109148</v>
       </c>
       <c r="P32">
-        <v>0.02352134837643289</v>
+        <v>0.0173887125129192</v>
       </c>
       <c r="Q32">
-        <v>51.30627071030186</v>
+        <v>57.610821551391</v>
       </c>
       <c r="R32">
-        <v>51.30627071030186</v>
+        <v>230.443286205564</v>
       </c>
       <c r="S32">
-        <v>0.002606065749194167</v>
+        <v>0.002775815300540131</v>
       </c>
       <c r="T32">
-        <v>0.002606065749194167</v>
+        <v>0.0013486716302081</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,52 +2459,52 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33">
-        <v>14.8024494929643</v>
+        <v>14.999783</v>
       </c>
       <c r="H33">
-        <v>14.8024494929643</v>
+        <v>29.999566</v>
       </c>
       <c r="I33">
-        <v>0.1107957633842668</v>
+        <v>0.1094404900226514</v>
       </c>
       <c r="J33">
-        <v>0.1107957633842668</v>
+        <v>0.07756017756956324</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L33">
         <v>1</v>
       </c>
       <c r="M33">
-        <v>19.3808377477765</v>
+        <v>20.670164</v>
       </c>
       <c r="N33">
-        <v>19.3808377477765</v>
+        <v>62.010492</v>
       </c>
       <c r="O33">
-        <v>0.1315218471533835</v>
+        <v>0.1365014819852278</v>
       </c>
       <c r="P33">
-        <v>0.1315218471533835</v>
+        <v>0.1403729789796018</v>
       </c>
       <c r="Q33">
-        <v>286.8838718927976</v>
+        <v>310.047974574412</v>
       </c>
       <c r="R33">
-        <v>286.8838718927976</v>
+        <v>1860.287847446472</v>
       </c>
       <c r="S33">
-        <v>0.01457206345706799</v>
+        <v>0.01493878907728145</v>
       </c>
       <c r="T33">
-        <v>0.01457206345706799</v>
+        <v>0.01088735317562648</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,52 +2521,52 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34">
-        <v>14.8024494929643</v>
+        <v>14.999783</v>
       </c>
       <c r="H34">
-        <v>14.8024494929643</v>
+        <v>29.999566</v>
       </c>
       <c r="I34">
-        <v>0.1107957633842668</v>
+        <v>0.1094404900226514</v>
       </c>
       <c r="J34">
-        <v>0.1107957633842668</v>
+        <v>0.07756017756956324</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L34">
         <v>1</v>
       </c>
       <c r="M34">
-        <v>56.318798877526</v>
+        <v>57.18013133333333</v>
       </c>
       <c r="N34">
-        <v>56.318798877526</v>
+        <v>171.540394</v>
       </c>
       <c r="O34">
-        <v>0.3821894881031094</v>
+        <v>0.3776057445460984</v>
       </c>
       <c r="P34">
-        <v>0.3821894881031094</v>
+        <v>0.3883155147537712</v>
       </c>
       <c r="Q34">
-        <v>833.6561758889931</v>
+        <v>857.6895619115005</v>
       </c>
       <c r="R34">
-        <v>833.6561758889931</v>
+        <v>5146.137371469003</v>
       </c>
       <c r="S34">
-        <v>0.04234497609182618</v>
+        <v>0.04132535771849312</v>
       </c>
       <c r="T34">
-        <v>0.04234497609182618</v>
+        <v>0.03011782027731884</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,52 +2583,52 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
       <c r="G35">
-        <v>14.8024494929643</v>
+        <v>14.999783</v>
       </c>
       <c r="H35">
-        <v>14.8024494929643</v>
+        <v>29.999566</v>
       </c>
       <c r="I35">
-        <v>0.1107957633842668</v>
+        <v>0.1094404900226514</v>
       </c>
       <c r="J35">
-        <v>0.1107957633842668</v>
+        <v>0.07756017756956324</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
       <c r="M35">
-        <v>54.4912197396901</v>
+        <v>55.57159966666666</v>
       </c>
       <c r="N35">
-        <v>54.4912197396901</v>
+        <v>166.714799</v>
       </c>
       <c r="O35">
-        <v>0.3697872077086645</v>
+        <v>0.3669833345681142</v>
       </c>
       <c r="P35">
-        <v>0.3697872077086645</v>
+        <v>0.3773918287185262</v>
       </c>
       <c r="Q35">
-        <v>806.603528006782</v>
+        <v>833.5619359628721</v>
       </c>
       <c r="R35">
-        <v>806.603528006782</v>
+        <v>5001.371615777232</v>
       </c>
       <c r="S35">
-        <v>0.04097085596781793</v>
+        <v>0.04016283596528103</v>
       </c>
       <c r="T35">
-        <v>0.04097085596781793</v>
+        <v>0.02927057724871109</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,52 +2645,52 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
       <c r="G36">
-        <v>14.8024494929643</v>
+        <v>14.999783</v>
       </c>
       <c r="H36">
-        <v>14.8024494929643</v>
+        <v>29.999566</v>
       </c>
       <c r="I36">
-        <v>0.1107957633842668</v>
+        <v>0.1094404900226514</v>
       </c>
       <c r="J36">
-        <v>0.1107957633842668</v>
+        <v>0.07756017756956324</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L36">
         <v>1</v>
       </c>
       <c r="M36">
-        <v>5.01940832880662</v>
+        <v>5.477037333333333</v>
       </c>
       <c r="N36">
-        <v>5.01940832880662</v>
+        <v>16.431112</v>
       </c>
       <c r="O36">
-        <v>0.03406260676721585</v>
+        <v>0.03616922018076005</v>
       </c>
       <c r="P36">
-        <v>0.03406260676721585</v>
+        <v>0.03719506272240967</v>
       </c>
       <c r="Q36">
-        <v>74.29953827172433</v>
+        <v>82.15437148289865</v>
       </c>
       <c r="R36">
-        <v>74.29953827172433</v>
+        <v>492.9262288973919</v>
       </c>
       <c r="S36">
-        <v>0.003773992519631774</v>
+        <v>0.003958377180319551</v>
       </c>
       <c r="T36">
-        <v>0.003773992519631774</v>
+        <v>0.002884855669461136</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,52 +2707,52 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
       <c r="G37">
-        <v>14.8024494929643</v>
+        <v>14.999783</v>
       </c>
       <c r="H37">
-        <v>14.8024494929643</v>
+        <v>29.999566</v>
       </c>
       <c r="I37">
-        <v>0.1107957633842668</v>
+        <v>0.1094404900226514</v>
       </c>
       <c r="J37">
-        <v>0.1107957633842668</v>
+        <v>0.07756017756956324</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L37">
         <v>1</v>
       </c>
       <c r="M37">
-        <v>8.681983787270511</v>
+        <v>8.6884195</v>
       </c>
       <c r="N37">
-        <v>8.681983787270511</v>
+        <v>17.376839</v>
       </c>
       <c r="O37">
-        <v>0.05891750189119398</v>
+        <v>0.05737652288870818</v>
       </c>
       <c r="P37">
-        <v>0.05891750189119398</v>
+        <v>0.03933590231277193</v>
       </c>
       <c r="Q37">
-        <v>128.5146265098066</v>
+        <v>130.3244071129685</v>
       </c>
       <c r="R37">
-        <v>128.5146265098066</v>
+        <v>521.2976284518739</v>
       </c>
       <c r="S37">
-        <v>0.006527809598728822</v>
+        <v>0.006279314780736096</v>
       </c>
       <c r="T37">
-        <v>0.006527809598728822</v>
+        <v>0.003050899568237584</v>
       </c>
     </row>
   </sheetData>
